--- a/hist_502.xlsx
+++ b/hist_502.xlsx
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,24 +227,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -254,16 +241,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,120 +548,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="1.1640625" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.1640625" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+    <col min="3" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hist_502.xlsx
+++ b/hist_502.xlsx
@@ -1,96 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>ALEXANDRE VILLAR DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>ADRIANE VIANNA</t>
-  </si>
-  <si>
-    <t>ANDERSON MARTINS DE CASTRO</t>
-  </si>
-  <si>
-    <t>LUCIANE TIEKO MUNAKATA</t>
-  </si>
-  <si>
-    <t>PAULO RODRIGUES DE SOUZA JUNIOR</t>
-  </si>
-  <si>
-    <t>IONÁ VANUSA GERHEIM</t>
-  </si>
-  <si>
-    <t>CRISTINA DE CAMPOS</t>
-  </si>
-  <si>
-    <t>ANDREA APARECIDA DA SILVA DELGADO</t>
-  </si>
-  <si>
-    <t>MARCELA TORRES DE MORAES</t>
-  </si>
-  <si>
-    <t>PAULO LOPES BARBOSA JUNIOR</t>
-  </si>
-  <si>
-    <t>ANA LUCIA LEAO</t>
-  </si>
-  <si>
-    <t>MARIA ROSALINA DE ALCANTARA</t>
-  </si>
-  <si>
-    <t>Item 4.5 do edital</t>
-  </si>
-  <si>
-    <t>ADSON FRANKLIN DOS SANTOS</t>
-  </si>
-  <si>
-    <t>MARTA CRISTINA DA SILVA CARVALHO</t>
-  </si>
-  <si>
-    <t>SOLANGE OLIVEIRA MORAIS DE PAULA</t>
-  </si>
-  <si>
-    <t>GIOVANNE ELISSON COSTA ELIZEU</t>
-  </si>
-  <si>
-    <t>MARCO VINICIUS ALEIXO</t>
-  </si>
-  <si>
-    <t>TATIANA DALILA FERNANDES DE OLIVEIRA RODRIGUES</t>
-  </si>
-  <si>
-    <t>ANA OLIVIA REIS MELQUIADES</t>
-  </si>
-  <si>
-    <t>CHARLINE JUVENAL DOMINGOS DE PAULA SANTOS</t>
+    <t xml:space="preserve">ALEXANDRE VILLAR DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANE VIANNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON MARTINS DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANE TIEKO MUNAKATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO RODRIGUES DE SOUZA JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IONÁ VANUSA GERHEIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTINA DE CAMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA APARECIDA DA SILVA DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELA TORRES DE MORAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO LOPES BARBOSA JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA LUCIA LEAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA ROSALINA DE ALCANTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADSON FRANKLIN DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTA CRISTINA DA SILVA CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLANGE OLIVEIRA MORAIS DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNE ELISSON COSTA ELIZEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO VINICIUS ALEIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANA DALILA FERNANDES DE OLIVEIRA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA OLIVIA REIS MELQUIADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARLINE JUVENAL DOMINGOS DE PAULA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM – HISTÓRIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,41 +128,72 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,94 +204,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -238,33 +295,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -277,13 +325,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -293,15 +335,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -309,7 +349,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -317,11 +356,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -330,184 +369,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>76.0</v>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>77.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>78.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>79.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>80.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>81.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>82.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>83.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>84.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>85.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>86.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>87.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>88.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>89.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>90.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>91.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>92.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>93.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>94.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>95.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>96.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>